--- a/Huzaifa-annotations/BGFV_Q2_2013.xlsx
+++ b/Huzaifa-annotations/BGFV_Q2_2013.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/earnings_call_transcripts_rated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/Huzaifa-annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F965043-0D7C-144B-972D-C54908CD800A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CD5638-A6F9-0B43-8B53-0F7FB4C46601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1960" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>asker</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Is there more work to be done because I know you're sort of lapping in the period last year, which is, again, a bit of a master strategy. Is there a meaningful change in the mix this year versus last with regard to the price points?</t>
   </si>
   <si>
-    <t>And then, secondly, the environment out there, I think, is certainly been a positive factor so far this year. Do you sense any change with that? Or does that continue to be sort of a secondary positive factor for you guys in terms of comps ability?</t>
-  </si>
-  <si>
     <t>The pace of macroeconomic recovery out there.</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>Well, it continues to be a work in progress. I do believe there is more work to be done. We're still consistently evaluating our product offering and looking to make improvements on an ongoing basis, certainly.</t>
   </si>
   <si>
-    <t>I'm not sure what -- when you say the environment, are you saying the economic environment? The weather environment? The competitive environment?</t>
-  </si>
-  <si>
     <t>Yes, we think it's been generally positive. I think there's still lots of issues that remain in some of our markets and particularly in California. But I think the year-over-year improvement has been positive. We still believe there's a segment of our consumer base that is affected by issues of payroll tax and unemployment benefits running out and the like, but overall, we see the environment being recently stable and hopefully getting better.</t>
   </si>
   <si>
@@ -191,9 +185,6 @@
   </si>
   <si>
     <t>Yes, that's true, we did not buy back any shares in the second quarter and we'll continue to evaluate that as we always do with our board, ongoing at least quarterly.</t>
-  </si>
-  <si>
-    <t>Did you say the ultimate profitability, David?</t>
   </si>
   <si>
     <t>We're certainly doing this in the belief that they'll be accretive to the profitability of the business. I think it's premature to try to quantify that. We think we're approaching at an intelligent fashion. We roll out in a manner that ultimately will lead to positive sales, accretive to sales without meaningful cannibalization to the business, and hopefully, we'll like creating an omni-channel, multiple ways for our consumers to interact with us, and it will be positive to our same-store sales.</t>
@@ -610,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -661,7 +652,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -693,7 +684,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -725,30 +716,30 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -757,7 +748,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -766,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -789,19 +780,19 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -815,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -836,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -847,25 +838,25 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -876,7 +867,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -885,7 +876,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -894,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -911,22 +902,22 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -943,28 +934,28 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -981,13 +972,13 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -996,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1004,7 +995,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1013,10 +1004,10 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1045,22 +1036,22 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1077,7 +1068,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1086,13 +1077,13 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1100,7 +1091,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1109,22 +1100,22 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1135,22 +1126,22 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1173,7 +1164,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1182,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1205,22 +1196,22 @@
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1228,16 +1219,16 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1249,10 +1240,10 @@
         <v>2</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1263,19 +1254,19 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1287,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1295,13 +1286,13 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1310,13 +1301,13 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1324,7 +1315,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -1333,7 +1324,7 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1348,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -1356,97 +1347,33 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
         <v>1</v>
       </c>
     </row>
